--- a/biology/Botanique/Areca/Areca.xlsx
+++ b/biology/Botanique/Areca/Areca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Areca (Linné, 1753) est un genre de palmiers à feuilles pennées, de la famille des Arecaceae et originaire des forêts tropicales de Chine et d'Inde. Son espèce la plus connue est le palmier à bétel.
 </t>
@@ -511,9 +523,11 @@
           <t>Aspects botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'areca est composé de stipes, assez minces (20 cm environ) et recouverts de cicatrices annelées, de 15-25 m et pouvant atteindre 30 mètres de hauteur[1]. Ses feuilles sont pennées, avec des pointes pouvant être émoussées, coupées ou dentées. L’inflorescence contient des fleurs mâles et femelles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'areca est composé de stipes, assez minces (20 cm environ) et recouverts de cicatrices annelées, de 15-25 m et pouvant atteindre 30 mètres de hauteur. Ses feuilles sont pennées, avec des pointes pouvant être émoussées, coupées ou dentées. L’inflorescence contient des fleurs mâles et femelles.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre affectionne les régions tropicales chaudes et humides. La plupart des espèces vivent dans les forêts tropicales, en milieu ombragé.
 Distribution : Inde orientale, Sri Lanka, Asie du Sud-Est, Queensland (Australie), Îles Salomon…</t>
@@ -573,7 +589,9 @@
           <t>Ennemi de culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La cochenille farineuse affectionne cette plante.
 </t>
@@ -604,7 +622,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Arecoideae
@@ -639,7 +659,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Areca abdulrahmanii J.Dransf., Bot. J. Linn. Soc. 81: 33 (1980).
 Areca ahmadii J.Dransf., Kew Bull. 39: 4 (1984).
